--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(HE)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(HE).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(HE)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(HE).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(HE)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(HE)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 | HE | 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(HE)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(HE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +526,63 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">He
-Heb
-Hebe
+          <t>He</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Heb</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hebe
 Hebe andersonii - Véronique arbustive
 Hebe armstrongii
 Hebe brachysiphon
 Hebe leiophylla
 Hebe microphylla
-Hebe pinguifolia
-Hed
-Hedera - Araliacées
+Hebe pinguifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hed</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hedera - Araliacées
 Hedera canariensis - Lierre des Canaries
 Hedera helix - Lierre grimpant
 Hedychium - fam. Zingibéracées
@@ -534,9 +592,47 @@
 Hedysarum boutignyanum
 Hedysarum spinosissimum
 Hedyscepe - fam. Arécacées (palmier)
-Hedyscepe canterburyana
-Hel
-Helenium
+Hedyscepe canterburyana</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hel</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Helenium
 Helenium autumnale - Hélénie d'automne
 Helenium Hoopesii - Hélénie jaune
 Helianthemum - fam. Cistacées
@@ -596,18 +692,132 @@
 Helleborus corsicus - Hellébore de Corse
 Helleborus foetidus - Hellébore fétide
 Helleborus niger - Rose de Noël
-Helleborus viridis - Hellébore vert
-Hem
-Hemerocallis - fam. Liliacées
+Helleborus viridis - Hellébore vert</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hem</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hemerocallis - fam. Liliacées
 Hemerocallis fulva - Hémérocalle jaune ou « Lys orange »
 Hemerocallis lilo-asphodelus - Hémérocalle fauve
-Hemerocallis middendorffii - Hémérocalle de Sibérie
-Hep
-Hepatica - fam. Renonculacées
+Hemerocallis middendorffii - Hémérocalle de Sibérie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hep</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hepatica - fam. Renonculacées
 Hepatica nobilis - Anémone hépatique
-Hepatica transsylvanica
-Her
-Heracleum - fam. Apiacées
+Hepatica transsylvanica</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Her</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Heracleum - fam. Apiacées
 Heracleum sphondylium - Grande Berce ou « Patte-d'ours »
 Heracleum sphondylium roseum'
 Herminium - fam. Orchidaceae
@@ -616,15 +826,129 @@
 Hermodactyle tuberosus - Iris des serpents
 Herniaria
 Herniaria latifolia
-Herniaria latifolia litardierei - Herniaire de Litardière
-Hes
-Hesperis - fam. Crucifères ou Brassicacées
+Herniaria latifolia litardierei - Herniaire de Litardière</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hesperis - fam. Crucifères ou Brassicacées
 Hesperis matronalis - Julienne des dames
-Malcolmia maritima - Julienne de Mahon
-Het
-Heterostemon
-Heu
-Heuchera - fam. Saxifragacées
+Malcolmia maritima - Julienne de Mahon</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Het</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Heterostemon</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(HE)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Heu</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heuchera - fam. Saxifragacées
 Heuchera sanguinea - Heuchera sanguine
  Portail de l’écologie   Portail de la botanique                    </t>
         </is>
